--- a/diplomovka/moja_praca/plán/plánovanie.xlsx
+++ b/diplomovka/moja_praca/plán/plánovanie.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repositories\FHI\diplomovka\moja_praca\plán\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repozitare\FHI\diplomovka\moja_praca\plán\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A6B37-51E1-451D-B1FE-20515EC83018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2598BCD-9CA9-4A18-BD5D-B936113931E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
     <sheet name="fáza 0" sheetId="2" r:id="rId2"/>
+    <sheet name="faza 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>úvodná fáza</t>
   </si>
@@ -83,6 +84,48 @@
   </si>
   <si>
     <t xml:space="preserve">web service soap </t>
+  </si>
+  <si>
+    <t>dáta</t>
+  </si>
+  <si>
+    <t>tvorba dat</t>
+  </si>
+  <si>
+    <t>info knihy</t>
+  </si>
+  <si>
+    <t>info transakcie</t>
+  </si>
+  <si>
+    <t>xml schemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvorba xml s excelu </t>
+  </si>
+  <si>
+    <t>fronted</t>
+  </si>
+  <si>
+    <t>obrazovky</t>
+  </si>
+  <si>
+    <t>metody/služby</t>
+  </si>
+  <si>
+    <t>vrat 1 knihu</t>
+  </si>
+  <si>
+    <t>vrat knihy podľa parametra</t>
+  </si>
+  <si>
+    <t>obrazovka na hladanie knih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obrazovka na hladanie informacii o objednavkach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">obrazovka o 1 knihe </t>
   </si>
 </sst>
 </file>
@@ -413,14 +456,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -431,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -453,7 +496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -461,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,23 +518,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E1323C-D361-4153-B17B-9AD892A45619}">
   <dimension ref="C5:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -499,7 +542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -507,9 +550,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B48052-2962-429B-9895-0A4C1C97E213}">
+  <dimension ref="D8:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/diplomovka/moja_praca/plán/plánovanie.xlsx
+++ b/diplomovka/moja_praca/plán/plánovanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repozitare\FHI\diplomovka\moja_praca\plán\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2598BCD-9CA9-4A18-BD5D-B936113931E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4FA46-C224-485F-AE03-A85BD98A8873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>úvodná fáza</t>
   </si>
@@ -126,6 +126,36 @@
   </si>
   <si>
     <t xml:space="preserve">obrazovka o 1 knihe </t>
+  </si>
+  <si>
+    <t>vrat vsetky knihy</t>
+  </si>
+  <si>
+    <t>vrat pocet knih v danom obdoby podla roznych kategorii</t>
+  </si>
+  <si>
+    <t>vypocitaj zisk</t>
+  </si>
+  <si>
+    <t>vrat prijmy za zadanych knih podla kategorie a zadaneho obdobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrat naklady knih podla zadanej kategorie a zadaneho obdobia </t>
+  </si>
+  <si>
+    <t>strany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvodna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stranka s info o jednej knihe </t>
+  </si>
+  <si>
+    <t>stranka s udajmi o knihach na zaklade parametra</t>
+  </si>
+  <si>
+    <t>stranka kde budu zobrazene ekonomicke udaje ako aj pocty knih na zaklade kategoie a zadaneho obdobia</t>
   </si>
 </sst>
 </file>
@@ -453,7 +483,7 @@
   <dimension ref="B6:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,10 +508,10 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -489,10 +519,10 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -500,7 +530,7 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -516,44 +546,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E1323C-D361-4153-B17B-9AD892A45619}">
-  <dimension ref="C5:H9"/>
+  <dimension ref="C5:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,15 +600,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B48052-2962-429B-9895-0A4C1C97E213}">
-  <dimension ref="D8:J13"/>
+  <dimension ref="D8:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>19</v>
       </c>
@@ -581,7 +619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -591,40 +629,74 @@
       <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="4:20" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/diplomovka/moja_praca/plán/plánovanie.xlsx
+++ b/diplomovka/moja_praca/plán/plánovanie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repozitare\FHI\diplomovka\moja_praca\plán\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4FA46-C224-485F-AE03-A85BD98A8873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F382B3-7207-4899-A50A-FEE18C87B02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>úvodná fáza</t>
   </si>
@@ -156,6 +156,45 @@
   </si>
   <si>
     <t>stranka kde budu zobrazene ekonomicke udaje ako aj pocty knih na zaklade kategoie a zadaneho obdobia</t>
+  </si>
+  <si>
+    <t>update 6.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treba dorobiť logiku na backend </t>
+  </si>
+  <si>
+    <t>date between</t>
+  </si>
+  <si>
+    <t>hľadanie podľa parametra a dát vratených z frotendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorting </t>
+  </si>
+  <si>
+    <t>vypisovanie dát to tabuľlky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neskorej aj prepisovanie xml </t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete </t>
+  </si>
+  <si>
+    <t>ked tak update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vypočet matematických udajov  dynamicky v čaeśe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zapisovanie do suborov  s časovou pečiatkov </t>
+  </si>
+  <si>
+    <t>stranka na hľadanie podľa kategórií</t>
   </si>
 </sst>
 </file>
@@ -171,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,9 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -600,10 +646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B48052-2962-429B-9895-0A4C1C97E213}">
-  <dimension ref="D8:T15"/>
+  <dimension ref="D8:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +675,7 @@
       <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T9" t="s">
@@ -646,7 +692,7 @@
       <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -657,10 +703,10 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -697,6 +743,66 @@
       </c>
       <c r="T15" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
